--- a/server-res/excel/Cfg_Scene_EnterPoint.xlsx
+++ b/server-res/excel/Cfg_Scene_EnterPoint.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
@@ -16,13 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="21">
-  <si>
-    <t>uint32</t>
-  </si>
-  <si>
-    <t>float</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="19">
   <si>
     <t>idmap</t>
   </si>
@@ -94,7 +88,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -144,6 +138,9 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
@@ -191,7 +188,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -226,7 +223,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -435,127 +432,127 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J8"/>
+  <dimension ref="A1:J7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I8" sqref="I8"/>
+      <selection activeCell="A2" sqref="A2:XFD2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
         <v>2</v>
       </c>
-      <c r="B1" t="s">
+      <c r="D1" t="s">
         <v>3</v>
       </c>
-      <c r="C1" t="s">
+      <c r="E1" t="s">
         <v>4</v>
       </c>
-      <c r="D1" t="s">
+      <c r="F1" t="s">
         <v>5</v>
       </c>
-      <c r="E1" t="s">
+      <c r="G1" t="s">
         <v>6</v>
       </c>
-      <c r="F1" t="s">
+      <c r="H1" t="s">
         <v>7</v>
       </c>
-      <c r="G1" t="s">
+      <c r="I1" t="s">
         <v>8</v>
       </c>
-      <c r="H1" t="s">
+      <c r="J1" t="s">
         <v>9</v>
-      </c>
-      <c r="I1" t="s">
-        <v>10</v>
-      </c>
-      <c r="J1" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="B2" t="s">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="C2" t="s">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="D2" t="s">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="E2" t="s">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="F2" t="s">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="G2" t="s">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="H2" t="s">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="I2" t="s">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="J2" t="s">
-        <v>0</v>
+        <v>18</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A3" t="s">
-        <v>12</v>
-      </c>
-      <c r="B3" t="s">
-        <v>13</v>
-      </c>
-      <c r="C3" t="s">
-        <v>14</v>
-      </c>
-      <c r="D3" t="s">
-        <v>14</v>
-      </c>
-      <c r="E3" t="s">
-        <v>15</v>
-      </c>
-      <c r="F3" t="s">
-        <v>17</v>
-      </c>
-      <c r="G3" t="s">
-        <v>18</v>
-      </c>
-      <c r="H3" t="s">
-        <v>16</v>
-      </c>
-      <c r="I3" t="s">
-        <v>19</v>
-      </c>
-      <c r="J3" t="s">
-        <v>20</v>
+      <c r="A3" s="1">
+        <v>101</v>
+      </c>
+      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="C3">
+        <v>100</v>
+      </c>
+      <c r="D3">
+        <v>100</v>
+      </c>
+      <c r="E3">
+        <v>5</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3" s="1">
+        <v>0</v>
+      </c>
+      <c r="H3" s="1">
+        <v>0</v>
+      </c>
+      <c r="I3" s="1">
+        <v>0</v>
+      </c>
+      <c r="J3" s="1">
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A4" s="1">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B4">
         <v>1</v>
       </c>
-      <c r="C4">
-        <v>100</v>
-      </c>
-      <c r="D4">
-        <v>100</v>
-      </c>
-      <c r="E4">
+      <c r="C4" s="1">
+        <v>100</v>
+      </c>
+      <c r="D4" s="1">
+        <v>100</v>
+      </c>
+      <c r="E4" s="1">
         <v>5</v>
       </c>
-      <c r="F4">
+      <c r="F4" s="1">
         <v>0</v>
       </c>
       <c r="G4" s="1">
@@ -573,7 +570,7 @@
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A5" s="1">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B5">
         <v>1</v>
@@ -605,7 +602,7 @@
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A6" s="1">
-        <v>103</v>
+        <v>201</v>
       </c>
       <c r="B6">
         <v>1</v>
@@ -637,7 +634,7 @@
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A7" s="1">
-        <v>201</v>
+        <v>301</v>
       </c>
       <c r="B7">
         <v>1</v>
@@ -664,38 +661,6 @@
         <v>0</v>
       </c>
       <c r="J7" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A8" s="1">
-        <v>301</v>
-      </c>
-      <c r="B8">
-        <v>1</v>
-      </c>
-      <c r="C8" s="1">
-        <v>100</v>
-      </c>
-      <c r="D8" s="1">
-        <v>100</v>
-      </c>
-      <c r="E8" s="1">
-        <v>5</v>
-      </c>
-      <c r="F8" s="1">
-        <v>0</v>
-      </c>
-      <c r="G8" s="1">
-        <v>0</v>
-      </c>
-      <c r="H8" s="1">
-        <v>0</v>
-      </c>
-      <c r="I8" s="1">
-        <v>0</v>
-      </c>
-      <c r="J8" s="1">
         <v>1</v>
       </c>
     </row>
